--- a/data/trans_camb/P2A_fisi_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,82</t>
+          <t>-0,65; 3,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,83</t>
+          <t>-0,37; 3,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,82</t>
+          <t>1,38; 9,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,77</t>
+          <t>-1,44; 3,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,16</t>
+          <t>-3,2; 1,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 8,1</t>
+          <t>-0,07; 8,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,63</t>
+          <t>-0,55; 2,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,81</t>
+          <t>-1,21; 1,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,1</t>
+          <t>1,37; 6,8</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,13; 319,73</t>
+          <t>-37,28; 385,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 387,77</t>
+          <t>-30,45; 460,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,45; 1082,35</t>
+          <t>62,09; 1033,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 178,81</t>
+          <t>-36,76; 165,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,01; 63,03</t>
+          <t>-73,05; 61,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 346,65</t>
+          <t>-3,42; 389,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 153,63</t>
+          <t>-21,62; 163,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 99,09</t>
+          <t>-40,41; 109,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,38; 424,79</t>
+          <t>40,21; 375,76</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,95</t>
+          <t>0,77; 4,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,78</t>
+          <t>-0,89; 2,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 12,13</t>
+          <t>4,21; 12,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,92</t>
+          <t>-0,47; 3,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,68</t>
+          <t>-1,66; 1,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,58</t>
+          <t>-0,88; 3,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,69</t>
+          <t>0,93; 3,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,61</t>
+          <t>-0,78; 1,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,47</t>
+          <t>1,99; 6,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,17; 320,3</t>
+          <t>20,63; 294,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 184,73</t>
+          <t>-33,59; 169,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>143,85; 735,96</t>
+          <t>120,43; 730,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 265,31</t>
+          <t>-16,18; 241,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 108,82</t>
+          <t>-57,07; 114,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 224,86</t>
+          <t>-32,87; 209,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 204,13</t>
+          <t>30,56; 204,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 94,48</t>
+          <t>-30,81; 96,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,03; 364,9</t>
+          <t>63,62; 337,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,81</t>
+          <t>-1,37; 3,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,68</t>
+          <t>-2,86; 1,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,76</t>
+          <t>-3,12; 1,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,39</t>
+          <t>-0,04; 5,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,37</t>
+          <t>-3,07; 1,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,08</t>
+          <t>-0,97; 3,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,91</t>
+          <t>0,07; 3,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,74</t>
+          <t>-2,16; 1,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,2</t>
+          <t>-1,06; 2,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 136,2</t>
+          <t>-25,32; 126,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,3; 60,27</t>
+          <t>-52,84; 50,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,7; 68,27</t>
+          <t>-57,51; 54,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 151,26</t>
+          <t>-4,6; 152,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,12; 41,32</t>
+          <t>-52,61; 42,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 114,42</t>
+          <t>-17,97; 112,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,88; 108,23</t>
+          <t>1,46; 103,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,24; 19,93</t>
+          <t>-42,11; 29,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 58,88</t>
+          <t>-20,98; 63,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,24</t>
+          <t>-1,59; 4,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,85</t>
+          <t>-1,27; 4,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,85</t>
+          <t>0,63; 7,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,68</t>
+          <t>-2,29; 4,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 1,89</t>
+          <t>-4,87; 1,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,75</t>
+          <t>-2,14; 3,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,71</t>
+          <t>-1,04; 3,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,33</t>
+          <t>-2,22; 2,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,72</t>
+          <t>0,46; 4,7</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 110,47</t>
+          <t>-23,92; 104,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 129,32</t>
+          <t>-20,23; 113,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,25; 210,93</t>
+          <t>6,72; 178,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 70,7</t>
+          <t>-22,58; 69,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 30,55</t>
+          <t>-47,2; 24,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 56,59</t>
+          <t>-21,17; 57,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 66,37</t>
+          <t>-13,2; 65,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 41,81</t>
+          <t>-28,08; 38,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,22; 81,18</t>
+          <t>6,77; 81,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,27</t>
+          <t>-2,62; 6,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,98</t>
+          <t>-4,18; 3,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,58; 11,17</t>
+          <t>2,79; 11,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 7,5</t>
+          <t>-0,84; 7,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,61; 9,18</t>
+          <t>0,36; 9,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 5,6</t>
+          <t>-1,08; 5,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,38</t>
+          <t>-0,31; 5,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,28</t>
+          <t>-0,75; 5,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,4</t>
+          <t>2,35; 7,65</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 91,46</t>
+          <t>-24,47; 83,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,95; 55,61</t>
+          <t>-37,26; 50,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,26; 164,31</t>
+          <t>21,53; 164,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 124,07</t>
+          <t>-9,35; 124,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,44; 154,71</t>
+          <t>2,53; 157,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 95,47</t>
+          <t>-11,23; 97,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 75,59</t>
+          <t>-4,57; 82,93</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 75,96</t>
+          <t>-7,66; 73,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,2; 106,4</t>
+          <t>22,19; 109,74</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,45</t>
+          <t>0,66; 8,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,83</t>
+          <t>-5,92; 0,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,63; 12,78</t>
+          <t>5,32; 12,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,15; 8,44</t>
+          <t>1,22; 8,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,12</t>
+          <t>-3,01; 4,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,23; 41,85</t>
+          <t>11,3; 40,61</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,03; 7,54</t>
+          <t>2,01; 7,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,83</t>
+          <t>-3,1; 1,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,47; 33,91</t>
+          <t>10,41; 30,18</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>5,36; 115,56</t>
+          <t>1,62; 110,43</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-48,19; 10,69</t>
+          <t>-49,15; 14,07</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>46,03; 161,67</t>
+          <t>42,17; 154,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,92; 94,21</t>
+          <t>7,88; 93,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 46,08</t>
+          <t>-25,69; 45,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>95,68; 428,39</t>
+          <t>95,96; 483,28</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>17,95; 83,62</t>
+          <t>16,54; 79,67</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 19,3</t>
+          <t>-26,6; 16,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>93,89; 330,4</t>
+          <t>93,32; 306,98</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,62</t>
+          <t>1,17; 3,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,69</t>
+          <t>-0,53; 1,65</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,89</t>
+          <t>5,03; 7,98</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,22</t>
+          <t>1,46; 4,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,94</t>
+          <t>-0,63; 1,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,71; 17,15</t>
+          <t>4,75; 16,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,56</t>
+          <t>1,71; 3,53</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,48</t>
+          <t>-0,15; 1,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,97</t>
+          <t>5,48; 12,24</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>18,88; 79,7</t>
+          <t>20,1; 77,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 37,58</t>
+          <t>-9,85; 36,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>90,49; 172,48</t>
+          <t>89,64; 178,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>22,0; 74,39</t>
+          <t>21,13; 73,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 34,31</t>
+          <t>-9,16; 30,6</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>72,35; 295,98</t>
+          <t>72,23; 271,87</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>28,4; 68,64</t>
+          <t>28,06; 66,41</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 28,75</t>
+          <t>-2,25; 28,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>92,38; 221,9</t>
+          <t>93,09; 211,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_fisi_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,37 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>3,21</t>
         </is>
       </c>
     </row>
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 9,67</t>
+          <t>0,42; 7,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,6</t>
+          <t>-1,78; 3,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,13</t>
+          <t>-3,45; 0,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 8,08</t>
+          <t>-0,22; 7,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,62</t>
+          <t>-0,68; 2,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,76</t>
+          <t>-1,31; 1,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,8</t>
+          <t>0,72; 5,89</t>
         </is>
       </c>
     </row>
@@ -748,37 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>302,51%</t>
+          <t>208,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,04%</t>
+          <t>-35,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>109,83%</t>
+          <t>100,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>36,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>175,64%</t>
+          <t>132,07%</t>
         </is>
       </c>
     </row>
@@ -801,44 +801,44 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,09; 1033,31</t>
+          <t>8,9; 820,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 165,99</t>
+          <t>-38,91; 147,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,05; 61,97</t>
+          <t>-75,22; 43,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 389,95</t>
+          <t>-10,09; 332,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 163,26</t>
+          <t>-24,15; 146,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,41; 109,0</t>
+          <t>-41,36; 97,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,21; 375,76</t>
+          <t>17,74; 306,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,37 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>3,64</t>
         </is>
       </c>
     </row>
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 12,61</t>
+          <t>3,96; 12,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,8</t>
+          <t>-0,58; 3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,75</t>
+          <t>-1,87; 1,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,37</t>
+          <t>-1,62; 2,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,72</t>
+          <t>0,85; 3,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,66</t>
+          <t>-0,83; 1,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,49</t>
+          <t>1,4; 6,15</t>
         </is>
       </c>
     </row>
@@ -964,37 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>331,05%</t>
+          <t>326,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>70,56%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>-8,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>177,58%</t>
+          <t>153,65%</t>
         </is>
       </c>
     </row>
@@ -1017,44 +1017,44 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>120,43; 730,27</t>
+          <t>117,87; 755,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 241,22</t>
+          <t>-19,72; 216,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,07; 114,46</t>
+          <t>-58,07; 99,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,87; 209,83</t>
+          <t>-53,78; 133,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,56; 204,3</t>
+          <t>25,59; 197,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 96,25</t>
+          <t>-31,14; 92,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,62; 337,06</t>
+          <t>39,94; 304,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,51</t>
+          <t>-3,06; 1,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,9</t>
+          <t>-1,84; 3,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,22</t>
+          <t>-1,5; 1,76</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,08%</t>
+          <t>-13,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,51; 54,9</t>
+          <t>-56,22; 60,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 112,25</t>
+          <t>-32,13; 92,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 63,22</t>
+          <t>-28,6; 48,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,41</t>
+          <t>-4,17; 5,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,77</t>
+          <t>-2,67; 3,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,7</t>
+          <t>-2,43; 3,77</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>81,48%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>17,93%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,72; 178,6</t>
+          <t>-54,02; 135,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 57,46</t>
+          <t>-26,39; 48,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,77; 81,47</t>
+          <t>-30,92; 62,81</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>4,78</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,79; 11,39</t>
+          <t>2,68; 11,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 5,71</t>
+          <t>-1,25; 5,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,65</t>
+          <t>2,11; 7,56</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>79,28%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>56,12%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,53; 164,2</t>
+          <t>18,56; 160,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 97,02</t>
+          <t>-12,81; 93,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>22,19; 109,74</t>
+          <t>21,23; 109,7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>20,72</t>
+          <t>34,3</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>23,26</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,66; 8,96</t>
+          <t>0,17; 10,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 0,91</t>
+          <t>-5,13; 3,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,63</t>
+          <t>0,54; 8,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,22; 8,48</t>
+          <t>-2,03; 7,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,26</t>
+          <t>-4,78; 3,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,3; 40,61</t>
+          <t>4,47; 69,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,47</t>
+          <t>0,42; 7,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,52</t>
+          <t>-3,54; 2,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,41; 30,18</t>
+          <t>4,16; 57,8</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>47,11%</t>
+          <t>59,36%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-23,36%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>57,66%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>28,48%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>-5,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>193,35%</t>
+          <t>384,85%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>42,55%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>-7,37%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>155,55%</t>
+          <t>265,73%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,62; 110,43</t>
+          <t>-0,98; 170,18</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 14,07</t>
+          <t>-46,77; 58,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>42,17; 154,86</t>
+          <t>2,69; 142,37</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,88; 93,9</t>
+          <t>-19,38; 101,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 45,45</t>
+          <t>-43,96; 48,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>95,96; 483,28</t>
+          <t>46,94; 1376,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,54; 79,67</t>
+          <t>3,27; 95,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 16,15</t>
+          <t>-34,58; 36,73</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>93,32; 306,98</t>
+          <t>45,31; 723,39</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>15,12</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>18,63</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>17,22</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,55</t>
+          <t>-2,26; 10,51</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,65</t>
+          <t>-9,05; 0,87</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,98</t>
+          <t>8,94; 20,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,11</t>
+          <t>0,91; 12,7</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,73</t>
+          <t>-4,24; 6,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,75; 16,67</t>
+          <t>14,07; 23,68</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,53</t>
+          <t>1,52; 10,23</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,45</t>
+          <t>-4,6; 3,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,48; 12,24</t>
+          <t>13,27; 21,04</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>-36,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>128,95%</t>
+          <t>129,17%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>55,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>124,26%</t>
+          <t>148,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>46,97%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>-6,0%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>127,36%</t>
+          <t>140,73%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-16,32; 121,9</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-64,14; 11,85</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>54,21; 235,46</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>4,86; 128,18</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-27,9; 67,78</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>86,61; 254,75</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 97,22</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-32,14; 30,98</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>87,79; 210,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>5,47</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 3,55</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 1,65</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 7,03</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 4,05</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 1,68</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 24,37</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 3,51</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 1,42</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 15,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>46,4%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>109,53%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>45,17%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>151,36%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>45,76%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>134,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>20,1; 77,28</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-9,85; 36,58</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>89,64; 178,66</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>21,13; 73,62</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>-9,16; 30,6</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>72,23; 271,87</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>28,06; 66,41</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 28,99</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>93,09; 211,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>61,84; 160,31</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>20,11; 71,73</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-10,08; 29,19</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>63,34; 402,44</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>27,45; 65,99</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 27,4</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>78,4; 292,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2A_fisi_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,23</t>
+          <t>-0,82; 3,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,87</t>
+          <t>-0,37; 3,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 7,49</t>
+          <t>0,49; 7,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,34</t>
+          <t>-1,75; 3,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 0,91</t>
+          <t>-3,28; 0,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,91</t>
+          <t>-0,31; 7,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,55</t>
+          <t>-0,55; 2,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,6</t>
+          <t>-1,26; 1,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,89</t>
+          <t>0,7; 6,04</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 385,04</t>
+          <t>-46,73; 362,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 460,87</t>
+          <t>-22,6; 488,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 820,05</t>
+          <t>3,51; 805,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 147,15</t>
+          <t>-41,51; 144,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,22; 43,13</t>
+          <t>-74,41; 40,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 332,67</t>
+          <t>-12,08; 316,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 146,17</t>
+          <t>-20,07; 147,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 97,24</t>
+          <t>-42,92; 99,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,74; 306,29</t>
+          <t>18,83; 320,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,67</t>
+          <t>0,87; 4,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,55</t>
+          <t>-0,98; 2,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 12,28</t>
+          <t>3,79; 12,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,71</t>
+          <t>-0,55; 3,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,53</t>
+          <t>-1,99; 1,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,62</t>
+          <t>-1,74; 2,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,64</t>
+          <t>0,67; 3,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,64</t>
+          <t>-0,94; 1,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,15</t>
+          <t>1,52; 5,95</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,63; 294,06</t>
+          <t>15,33; 289,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 169,61</t>
+          <t>-34,04; 171,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>117,87; 755,06</t>
+          <t>122,95; 758,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 216,76</t>
+          <t>-14,56; 233,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,07; 99,87</t>
+          <t>-62,09; 86,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 133,68</t>
+          <t>-51,35; 138,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,59; 197,4</t>
+          <t>19,57; 196,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 92,31</t>
+          <t>-33,08; 78,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,94; 304,79</t>
+          <t>50,1; 302,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,67</t>
+          <t>-1,37; 3,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,44</t>
+          <t>-2,77; 1,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,69</t>
+          <t>-2,81; 2,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,27</t>
+          <t>0,18; 5,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,36</t>
+          <t>-2,9; 1,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,12</t>
+          <t>-1,71; 3,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,58</t>
+          <t>-0,02; 3,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,04</t>
+          <t>-2,34; 0,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,76</t>
+          <t>-1,68; 1,85</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 126,02</t>
+          <t>-25,43; 115,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,84; 50,08</t>
+          <t>-51,54; 58,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,22; 60,22</t>
+          <t>-52,59; 65,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 152,68</t>
+          <t>0,54; 150,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,61; 42,08</t>
+          <t>-49,52; 41,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 92,67</t>
+          <t>-29,05; 89,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 103,31</t>
+          <t>-0,25; 112,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,11; 29,96</t>
+          <t>-44,04; 28,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 48,99</t>
+          <t>-31,59; 50,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 4,13</t>
+          <t>-1,65; 4,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,61</t>
+          <t>-0,96; 4,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 5,99</t>
+          <t>-3,35; 6,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,77</t>
+          <t>-2,32; 4,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,58</t>
+          <t>-4,74; 1,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,35</t>
+          <t>-2,77; 3,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,77</t>
+          <t>-1,02; 3,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,21</t>
+          <t>-2,36; 2,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,77</t>
+          <t>-2,39; 3,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 104,08</t>
+          <t>-24,58; 112,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 113,2</t>
+          <t>-15,45; 129,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,02; 135,2</t>
+          <t>-45,85; 132,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 69,35</t>
+          <t>-22,58; 76,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,2; 24,59</t>
+          <t>-46,69; 27,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 48,5</t>
+          <t>-26,41; 52,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 65,06</t>
+          <t>-13,38; 64,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 38,15</t>
+          <t>-28,9; 38,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 62,81</t>
+          <t>-26,7; 59,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 6,07</t>
+          <t>-2,61; 6,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,45</t>
+          <t>-4,69; 3,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 11,29</t>
+          <t>2,77; 11,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 7,58</t>
+          <t>-0,94; 7,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 9,03</t>
+          <t>0,39; 9,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 5,62</t>
+          <t>-1,15; 5,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 5,78</t>
+          <t>-0,44; 5,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,33</t>
+          <t>-0,39; 5,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,56</t>
+          <t>1,77; 7,2</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 83,05</t>
+          <t>-23,69; 85,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,26; 50,3</t>
+          <t>-39,65; 46,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,56; 160,47</t>
+          <t>22,44; 166,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 124,78</t>
+          <t>-9,7; 130,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,53; 157,46</t>
+          <t>2,99; 152,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 93,43</t>
+          <t>-12,28; 104,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 82,93</t>
+          <t>-5,03; 77,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 73,53</t>
+          <t>-4,41; 79,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,23; 109,7</t>
+          <t>17,0; 103,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,17; 10,88</t>
+          <t>-0,41; 10,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,62</t>
+          <t>-4,97; 3,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,54; 8,94</t>
+          <t>0,24; 8,91</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,32</t>
+          <t>-2,32; 6,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,13</t>
+          <t>-4,52; 3,29</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,47; 69,44</t>
+          <t>4,2; 67,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,42; 7,16</t>
+          <t>0,47; 7,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 2,69</t>
+          <t>-3,65; 2,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,16; 57,8</t>
+          <t>4,36; 54,29</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 170,18</t>
+          <t>-6,5; 171,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 58,44</t>
+          <t>-46,73; 56,83</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2,69; 142,37</t>
+          <t>0,14; 135,71</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 101,33</t>
+          <t>-19,89; 104,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,96; 48,01</t>
+          <t>-43,27; 47,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>46,94; 1376,98</t>
+          <t>43,79; 1093,92</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,27; 95,1</t>
+          <t>4,53; 99,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 36,73</t>
+          <t>-36,16; 29,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>45,31; 723,39</t>
+          <t>46,02; 739,07</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 10,51</t>
+          <t>-2,5; 11,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 0,87</t>
+          <t>-10,01; 0,46</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,94; 20,45</t>
+          <t>9,57; 20,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,91; 12,7</t>
+          <t>1,21; 12,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 6,85</t>
+          <t>-4,25; 7,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,07; 23,68</t>
+          <t>13,44; 23,31</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,52; 10,23</t>
+          <t>1,61; 9,99</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,26</t>
+          <t>-4,22; 3,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,27; 21,04</t>
+          <t>13,0; 20,91</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 121,9</t>
+          <t>-19,0; 130,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 11,85</t>
+          <t>-66,14; 9,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>54,21; 235,46</t>
+          <t>60,84; 238,93</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4,86; 128,18</t>
+          <t>7,77; 131,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 67,78</t>
+          <t>-29,3; 69,04</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>86,61; 254,75</t>
+          <t>81,79; 239,24</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>9,91; 97,22</t>
+          <t>10,94; 96,71</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 30,98</t>
+          <t>-30,97; 28,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>87,79; 210,74</t>
+          <t>86,75; 204,02</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,55</t>
+          <t>1,2; 3,57</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,65</t>
+          <t>-0,6; 1,64</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,03</t>
+          <t>3,14; 6,96</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,05</t>
+          <t>1,54; 4,12</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,68</t>
+          <t>-0,6; 1,8</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>4,15; 24,37</t>
+          <t>4,17; 25,27</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,51</t>
+          <t>1,73; 3,41</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,42</t>
+          <t>-0,18; 1,41</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,64</t>
+          <t>4,62; 17,2</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>20,1; 77,28</t>
+          <t>21,43; 79,23</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 36,58</t>
+          <t>-10,62; 37,67</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>61,84; 160,31</t>
+          <t>58,69; 154,49</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>20,11; 71,73</t>
+          <t>22,25; 73,1</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 29,19</t>
+          <t>-8,35; 31,97</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>63,34; 402,44</t>
+          <t>64,01; 422,49</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>27,45; 65,99</t>
+          <t>29,21; 66,27</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 27,4</t>
+          <t>-2,93; 27,01</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>78,4; 292,62</t>
+          <t>79,18; 323,21</t>
         </is>
       </c>
     </row>
